--- a/src/main/resources/report/reg_form.xlsx
+++ b/src/main/resources/report/reg_form.xlsx
@@ -4,7 +4,7 @@
   <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="стр.1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1611,7 +1611,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Роман Миллер" id="{F6A2F170-3812-9459-A165-C37763D564D5}" userId="Роман Миллер" providerId="Teamlab"/>
+  <person displayName="Роман Миллер" id="{61BC1339-EB41-1A32-0A2A-93357B9993A3}" userId="Роман Миллер" providerId="Teamlab"/>
 </personList>
 </file>
 
@@ -2027,7 +2027,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="BG11" dT="2023-11-21T19:01:12.64Z" personId="{F6A2F170-3812-9459-A165-C37763D564D5}" id="{D4825F7C-6826-844F-F779-ECEBC7E8823E}" done="0">
+  <threadedComment ref="BG11" dT="2023-11-21T19:01:12.64Z" personId="{61BC1339-EB41-1A32-0A2A-93357B9993A3}" id="{D4825F7C-6826-844F-F779-ECEBC7E8823E}" done="0">
     <text xml:space="preserve">jx:area(lastCell="BF37")
 </text>
   </threadedComment>
@@ -2036,7 +2036,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="BG10" dT="2023-11-21T19:05:38.42Z" personId="{F6A2F170-3812-9459-A165-C37763D564D5}" id="{5DCEE0C5-9585-2C20-C065-4289AD1137A8}" done="0">
+  <threadedComment ref="BG10" dT="2023-11-21T19:05:38.42Z" personId="{61BC1339-EB41-1A32-0A2A-93357B9993A3}" id="{5DCEE0C5-9585-2C20-C065-4289AD1137A8}" done="0">
     <text xml:space="preserve">jx:area(lastCell="BF24")
 </text>
   </threadedComment>
@@ -2050,7 +2050,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="1" showZeros="1" workbookViewId="0" zoomScale="100">
+    <sheetView showGridLines="0" showRowColHeaders="1" showZeros="1" topLeftCell="A4" workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3876,123 +3876,6 @@
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="14"/>
-      <c r="AN17" s="14"/>
-      <c r="AO17" s="14"/>
-      <c r="AP17" s="14"/>
-      <c r="AQ17" s="14"/>
-      <c r="AR17" s="14"/>
-      <c r="AS17" s="14"/>
-      <c r="AT17" s="14"/>
-      <c r="AU17" s="14"/>
-      <c r="AV17" s="14"/>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="14"/>
-      <c r="AY17" s="14"/>
-      <c r="AZ17" s="14"/>
-      <c r="BA17" s="14"/>
-      <c r="BB17" s="14"/>
-      <c r="BC17" s="14"/>
-      <c r="BD17" s="14"/>
-      <c r="BE17" s="14"/>
-      <c r="BF17" s="14"/>
-      <c r="BG17" s="14"/>
-      <c r="BH17" s="14"/>
-      <c r="BI17" s="14"/>
-      <c r="BJ17" s="14"/>
-      <c r="BK17" s="14"/>
-      <c r="BL17" s="14"/>
-      <c r="BM17" s="14"/>
-      <c r="BN17" s="14"/>
-      <c r="BO17" s="14"/>
-      <c r="BP17" s="14"/>
-      <c r="BQ17" s="14"/>
-      <c r="BR17" s="14"/>
-      <c r="BS17" s="14"/>
-      <c r="BT17" s="14"/>
-      <c r="BU17" s="14"/>
-      <c r="BV17" s="14"/>
-      <c r="BW17" s="14"/>
-      <c r="BX17" s="14"/>
-      <c r="BY17" s="14"/>
-      <c r="BZ17" s="14"/>
-      <c r="CA17" s="14"/>
-      <c r="CB17" s="14"/>
-      <c r="CC17" s="14"/>
-      <c r="CD17" s="14"/>
-      <c r="CE17" s="14"/>
-      <c r="CF17" s="14"/>
-      <c r="CG17" s="14"/>
-      <c r="CH17" s="14"/>
-      <c r="CI17" s="14"/>
-      <c r="CJ17" s="14"/>
-      <c r="CK17" s="14"/>
-      <c r="CL17" s="14"/>
-      <c r="CM17" s="14"/>
-      <c r="CN17" s="14"/>
-      <c r="CO17" s="14"/>
-      <c r="CP17" s="14"/>
-      <c r="CQ17" s="14"/>
-      <c r="CR17" s="14"/>
-      <c r="CS17" s="14"/>
-      <c r="CT17" s="14"/>
-      <c r="CU17" s="14"/>
-      <c r="CV17" s="14"/>
-      <c r="CW17" s="14"/>
-      <c r="CX17" s="14"/>
-      <c r="CY17" s="14"/>
-      <c r="CZ17" s="14"/>
-      <c r="DA17" s="14"/>
-      <c r="DB17" s="14"/>
-      <c r="DC17" s="14"/>
-      <c r="DD17" s="14"/>
-      <c r="DE17" s="14"/>
-      <c r="DF17" s="14"/>
-      <c r="DG17" s="14"/>
-      <c r="DH17" s="14"/>
-      <c r="DI17" s="14"/>
-      <c r="DJ17" s="14"/>
-      <c r="DK17" s="14"/>
-      <c r="DL17" s="14"/>
-      <c r="DM17" s="14"/>
-      <c r="DN17" s="14"/>
-      <c r="DO17" s="14"/>
-      <c r="DP17" s="14"/>
     </row>
     <row r="18" ht="17.25" customHeight="1">
       <c r="A18" s="1"/>
@@ -6068,7 +5951,7 @@
       <c r="DP52" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="189">
+  <mergeCells count="150">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="X1:AL2"/>
     <mergeCell ref="AN1:AP2"/>
@@ -6125,45 +6008,6 @@
     <mergeCell ref="BQ15:BS15"/>
     <mergeCell ref="BW15:BY15"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="AN17:AP17"/>
-    <mergeCell ref="AQ17:AS17"/>
-    <mergeCell ref="AT17:AV17"/>
-    <mergeCell ref="AW17:AY17"/>
-    <mergeCell ref="AZ17:BB17"/>
-    <mergeCell ref="BC17:BE17"/>
-    <mergeCell ref="BF17:BH17"/>
-    <mergeCell ref="BI17:BK17"/>
-    <mergeCell ref="BL17:BN17"/>
-    <mergeCell ref="BO17:BQ17"/>
-    <mergeCell ref="BR17:BT17"/>
-    <mergeCell ref="BU17:BW17"/>
-    <mergeCell ref="BX17:BZ17"/>
-    <mergeCell ref="CA17:CC17"/>
-    <mergeCell ref="CD17:CF17"/>
-    <mergeCell ref="CG17:CI17"/>
-    <mergeCell ref="CJ17:CL17"/>
-    <mergeCell ref="CM17:CO17"/>
-    <mergeCell ref="CP17:CR17"/>
-    <mergeCell ref="CS17:CU17"/>
-    <mergeCell ref="CV17:CX17"/>
-    <mergeCell ref="CY17:DA17"/>
-    <mergeCell ref="DB17:DD17"/>
-    <mergeCell ref="DE17:DG17"/>
-    <mergeCell ref="DH17:DJ17"/>
-    <mergeCell ref="DK17:DM17"/>
-    <mergeCell ref="DN17:DP17"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
